--- a/data/coaches/coaches.xlsx
+++ b/data/coaches/coaches.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bastit\Documents\fantasy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Python\Documents\fantasy_football\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC30C53-4068-4DA8-914C-B341051F1C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBEDD6C-CC19-4168-B780-1A83B05D584B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1314,23 +1314,23 @@
   <dimension ref="A1:I149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.90625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>45</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>47</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>49</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>51</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>55</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>57</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>59</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>61</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>63</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>65</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>69</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>71</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>73</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>75</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>77</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>79</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>81</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>83</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>85</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>87</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>89</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>91</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>93</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>95</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>97</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>99</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>101</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>103</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>105</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>107</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>109</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>111</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>113</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>115</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>117</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>119</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>121</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>123</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>125</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>127</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>129</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>131</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>133</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>135</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>137</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>139</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>141</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>143</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>145</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>147</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>149</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>151</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>153</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>155</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>157</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>159</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>161</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>163</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>165</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>167</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>169</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>171</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>173</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>175</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>177</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>179</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>181</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>183</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>185</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>187</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>189</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>191</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>193</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>195</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>197</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>199</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>201</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>203</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>205</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>207</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>209</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>211</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>213</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>215</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>217</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>219</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>221</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>223</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>225</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>227</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>229</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>231</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>233</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>235</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>237</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>239</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>241</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>243</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>245</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>247</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>249</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>251</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>253</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>255</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>257</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>259</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>261</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>263</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>265</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>267</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>269</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>271</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>273</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>275</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>277</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>279</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>281</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>283</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>285</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>287</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>289</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>291</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>293</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>295</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>297</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>299</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>301</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>303</v>
       </c>
@@ -5429,6 +5429,5 @@
   </sheetData>
   <autoFilter ref="A1:I149" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>